--- a/VerveStacks_SAU/SuppXLS/scen_tsparameters_weekly_stress.xlsx
+++ b/VerveStacks_SAU/SuppXLS/scen_tsparameters_weekly_stress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_SAU\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD8AAC6-F1CA-41AB-B3E5-A7A4B907C000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E791707A-F14D-49FD-82F0-8A5898703230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2511,10 +2511,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1b0430h09,S1b0430h12,S2b0501h13,S2b0503h09,S2b0503h11,S2b0504h17,S2b0506h11,S2b0506h16,S4aH2,S5c0917h17,S5c0918h12,S5c0918h16,S5c0920h13,S5c0920h18,S5c0921h16,S5c0923h12,S1aH4,S1b0430h08,S2aH2,S2b0502h14,S2b0503h08,S2b0503h15,S2b0504h07,S2b0504h18,S2b0505h11,S2b0506h09,S2b0506h15,S4aH6,S5c0918h10,S5c0918h13,S5c0920h11,S5c0922h12,S5c0922h15,S1aH6,S1b0430h11,S2b0502h17,S2b0506h17,S5c0917h07,S5c0917h10,S5c0917h13,S5c0923h16,S5c0923h17,S2b0501h09,S2b0503h14,S2b0503h18,S2b0505h10,S2b0505h12,S2b0505h17,S2b0506h13,S5c0917h14,S5c0920h10,S5c0921h14,S5c0923h09,S5c0923h11,S5c0923h15,S1aH3,S2b0504h09,S2b0504h11,S2b0504h14,S5c0919h14,S5c0920h12,S1aH2,S1aH7,S2aH3,S2b0501h08,S2b0502h10,S2b0502h16,S3aH6,S4aH7,S5aH6,S5aH7,S5c0917h08,S5c0918h09,S5c0918h14,S5c0919h07,S5c0919h15,S5c0922h08,S6aH6,S2b0501h14,S2b0503h12,S2b0505h07,S3aH2,S5c0917h11,S5c0917h12,S5c0919h17,S5c0922h07,S5c0922h13,S5c0923h10,S2b0501h16,S2b0501h18,S2b0504h13,S2b0504h16,S4aH5,S5c0920h07,S5c0920h09,S5c0920h14,S2aH6,S2b0505h18,S2b0506h10,S2b0506h18,S3aH5,S5aH3,S5c0919h09,S5c0920h15,S5c0922h17,S2b0501h10,S2b0502h15,S2b0503h17,S2b0504h08,S2b0504h15,S2b0505h09,S2b0505h13,S2b0506h12,S2b0506h14,S3aH7,S5c0918h07,S5c0918h11,S5c0919h10,S5c0920h16,S5c0921h11,S5c0922h09,S5c0923h13,S5c0923h18,S1b0430h17,S2b0502h11,S2b0504h12,S2b0505h15,S3aH3,S5c0917h15,S5c0921h18,S2b0501h17,S2b0502h07,S2b0502h08,S2b0502h09,S5c0918h17,S5c0919h13,S5c0920h08,S5c0920h17,S5c0921h07,S5c0921h10,S5c0922h16,S5c0923h07,S5c0923h14,S6aH5,S1b0430h15,S2b0501h12,S2b0501h15,S2b0502h13,S2b0502h18,S2b0503h07,S2b0503h10,S2b0505h08,S2b0505h14,S2b0506h08,S5aH4,S5c0917h18,S5c0918h15,S5c0921h12,S6aH3,S6aH4,S1b0430h07,S2aH7,S2b0502h12,S2b0503h13,S2b0503h16,S2b0504h10,S3aH4,S4aH3,S4aH4,S5c0917h09,S5c0918h08,S5c0921h13,S5c0922h14,S5c0922h18,S1aH5,S1b0430h10,S1b0430h16,S1b0430h18,S2aH4,S2aH5,S2b0501h11,S2b0505h16,S2b0506h07,S5aH2,S5aH5,S5c0917h16,S5c0918h18,S5c0919h11,S5c0919h16,S5c0919h18,S5c0921h08,S5c0921h09,S5c0922h11,S6aH2,S1b0430h13,S1b0430h14,S2b0501h07,S5c0919h08,S5c0919h12,S5c0921h15,S5c0921h17,S5c0922h10,S5c0923h08,S6aH7</t>
-  </si>
-  <si>
-    <t>S2aH1,S2b0502h24,S2b0504h04,S2b0505h03,S2b0506h04,S5aH8,S5c0917h04,S5c0917h21,S5c0918h01,S5c0918h03,S5c0918h21,S5c0922h24,S5c0923h01,S5c0923h20,S5c0923h21,S2b0501h03,S2b0501h23,S2b0502h23,S2b0504h01,S2b0504h05,S2b0505h21,S2b0505h23,S2b0506h02,S4aH1,S5c0917h01,S5c0917h22,S5c0917h23,S5c0920h23,S5c0921h03,S5c0922h06,S5c0922h20,S5c0923h22,S6aH1,S1b0430h02,S1b0430h21,S2b0503h03,S2b0503h23,S2b0503h24,S2b0505h22,S5c0918h20,S5c0919h19,S5c0919h21,S5c0921h22,S5c0922h22,S5c0923h03,S5c0923h23,S6aH8,S1aH1,S1b0430h23,S2b0503h01,S2b0504h20,S2b0505h05,S2b0506h06,S5c0920h06,S5c0922h03,S5c0922h21,S2b0501h05,S2b0501h21,S5c0917h24,S5c0918h19,S5c0918h22,S5c0919h23,S5c0920h01,S5c0920h04,S5c0920h20,S5c0923h19,S1b0430h05,S2b0502h02,S2b0503h06,S2b0503h22,S2b0504h02,S2b0505h20,S2b0505h24,S2b0506h19,S5c0917h02,S5c0917h20,S5c0920h05,S5c0920h22,S5c0922h02,S1b0430h19,S2b0501h04,S2b0506h23,S3aH8,S5c0918h02,S5c0921h05,S5c0923h02,S1b0430h06,S2b0503h04,S2b0503h19,S2b0504h23,S2b0505h02,S5c0918h06,S5c0919h02,S5c0920h24,S5c0921h01,S5c0921h19,S5c0921h23,S5c0923h24,S1aH8,S2b0502h05,S2b0504h06,S2b0504h21,S2b0506h24,S5aH1,S5c0919h06,S5c0920h21,S5c0921h20,S5c0922h05,S5c0923h06,S2aH8,S2b0501h01,S2b0502h01,S2b0503h05,S2b0504h03,S2b0506h05,S5c0918h24,S5c0920h19,S5c0921h06,S5c0923h05,S1b0430h20,S2b0501h02,S2b0501h20,S2b0501h24,S2b0502h03,S2b0502h06,S2b0502h20,S2b0505h19,S2b0506h03,S5c0917h06,S5c0921h21,S5c0923h04,S2b0502h04,S2b0504h22,S2b0506h22,S4aH8,S5c0918h04,S5c0919h01,S5c0920h03,S5c0922h19,S1b0430h03,S2b0501h22,S2b0502h22,S2b0503h20,S2b0504h19,S2b0505h04,S2b0506h20,S5c0917h03,S5c0920h02,S5c0922h04,S1b0430h01,S1b0430h24,S2b0501h19,S2b0506h01,S5c0919h22,S5c0919h24,S5c0921h02,S5c0921h24,S5c0922h01,S5c0922h23,S1b0430h22,S2b0502h19,S2b0502h21,S2b0503h02,S2b0503h21,S2b0504h24,S2b0505h01,S2b0505h06,S2b0506h21,S5c0917h19,S5c0919h04,S5c0919h05,S5c0921h04,S1b0430h04,S2b0501h06,S3aH1,S5c0917h05,S5c0918h05,S5c0918h23,S5c0919h03,S5c0919h20</t>
+    <t>S2b0501h16,S2b0501h18,S2b0504h13,S2b0504h16,S4aH5,S5c0920h07,S5c0920h09,S5c0920h14,S2b0501h17,S2b0502h07,S2b0502h08,S2b0502h09,S5c0918h17,S5c0919h13,S5c0920h08,S5c0920h17,S5c0921h07,S5c0921h10,S5c0922h16,S5c0923h07,S5c0923h14,S6aH5,S2aH6,S2b0505h18,S2b0506h10,S2b0506h18,S3aH5,S5aH3,S5c0919h09,S5c0920h15,S5c0922h17,S1b0430h13,S1b0430h14,S2b0501h07,S5c0919h08,S5c0919h12,S5c0921h15,S5c0921h17,S5c0922h10,S5c0923h08,S6aH7,S1aH5,S1b0430h10,S1b0430h16,S1b0430h18,S2aH4,S2aH5,S2b0501h11,S2b0505h16,S2b0506h07,S5aH2,S5aH5,S5c0917h16,S5c0918h18,S5c0919h11,S5c0919h16,S5c0919h18,S5c0921h08,S5c0921h09,S5c0922h11,S6aH2,S2b0501h09,S2b0503h14,S2b0503h18,S2b0505h10,S2b0505h12,S2b0505h17,S2b0506h13,S5c0917h14,S5c0920h10,S5c0921h14,S5c0923h09,S5c0923h11,S5c0923h15,S1aH3,S2b0504h09,S2b0504h11,S2b0504h14,S5c0919h14,S5c0920h12,S2b0501h10,S2b0502h15,S2b0503h17,S2b0504h08,S2b0504h15,S2b0505h09,S2b0505h13,S2b0506h12,S2b0506h14,S3aH7,S5c0918h07,S5c0918h11,S5c0919h10,S5c0920h16,S5c0921h11,S5c0922h09,S5c0923h13,S5c0923h18,S1aH4,S1b0430h08,S2aH2,S2b0502h14,S2b0503h08,S2b0503h15,S2b0504h07,S2b0504h18,S2b0505h11,S2b0506h09,S2b0506h15,S4aH6,S5c0918h10,S5c0918h13,S5c0920h11,S5c0922h12,S5c0922h15,S1b0430h07,S2aH7,S2b0502h12,S2b0503h13,S2b0503h16,S2b0504h10,S3aH4,S4aH3,S4aH4,S5c0917h09,S5c0918h08,S5c0921h13,S5c0922h14,S5c0922h18,S1aH2,S1aH7,S2aH3,S2b0501h08,S2b0502h10,S2b0502h16,S3aH6,S4aH7,S5aH6,S5aH7,S5c0917h08,S5c0918h09,S5c0918h14,S5c0919h07,S5c0919h15,S5c0922h08,S6aH6,S1b0430h15,S2b0501h12,S2b0501h15,S2b0502h13,S2b0502h18,S2b0503h07,S2b0503h10,S2b0505h08,S2b0505h14,S2b0506h08,S5aH4,S5c0917h18,S5c0918h15,S5c0921h12,S6aH3,S6aH4,S1b0430h09,S1b0430h12,S2b0501h13,S2b0503h09,S2b0503h11,S2b0504h17,S2b0506h11,S2b0506h16,S4aH2,S5c0917h17,S5c0918h12,S5c0918h16,S5c0920h13,S5c0920h18,S5c0921h16,S5c0923h12,S1b0430h17,S2b0502h11,S2b0504h12,S2b0505h15,S3aH3,S5c0917h15,S5c0921h18,S1aH6,S1b0430h11,S2b0502h17,S2b0506h17,S5c0917h07,S5c0917h10,S5c0917h13,S5c0923h16,S5c0923h17,S2b0501h14,S2b0503h12,S2b0505h07,S3aH2,S5c0917h11,S5c0917h12,S5c0919h17,S5c0922h07,S5c0922h13,S5c0923h10</t>
+  </si>
+  <si>
+    <t>S1b0430h06,S2b0503h04,S2b0503h19,S2b0504h23,S2b0505h02,S5c0918h06,S5c0919h02,S5c0920h24,S5c0921h01,S5c0921h19,S5c0921h23,S5c0923h24,S2b0502h04,S2b0504h22,S2b0506h22,S4aH8,S5c0918h04,S5c0919h01,S5c0920h03,S5c0922h19,S1aH8,S2b0502h05,S2b0504h06,S2b0504h21,S2b0506h24,S5aH1,S5c0919h06,S5c0920h21,S5c0921h20,S5c0922h05,S5c0923h06,S1b0430h04,S2b0501h06,S3aH1,S5c0917h05,S5c0918h05,S5c0918h23,S5c0919h03,S5c0919h20,S1b0430h22,S2b0502h19,S2b0502h21,S2b0503h02,S2b0503h21,S2b0504h24,S2b0505h01,S2b0505h06,S2b0506h21,S5c0917h19,S5c0919h04,S5c0919h05,S5c0921h04,S1aH1,S1b0430h23,S2b0503h01,S2b0504h20,S2b0505h05,S2b0506h06,S5c0920h06,S5c0922h03,S5c0922h21,S2b0501h05,S2b0501h21,S5c0917h24,S5c0918h19,S5c0918h22,S5c0919h23,S5c0920h01,S5c0920h04,S5c0920h20,S5c0923h19,S2aH8,S2b0501h01,S2b0502h01,S2b0503h05,S2b0504h03,S2b0506h05,S5c0918h24,S5c0920h19,S5c0921h06,S5c0923h05,S2b0501h03,S2b0501h23,S2b0502h23,S2b0504h01,S2b0504h05,S2b0505h21,S2b0505h23,S2b0506h02,S4aH1,S5c0917h01,S5c0917h22,S5c0917h23,S5c0920h23,S5c0921h03,S5c0922h06,S5c0922h20,S5c0923h22,S6aH1,S1b0430h01,S1b0430h24,S2b0501h19,S2b0506h01,S5c0919h22,S5c0919h24,S5c0921h02,S5c0921h24,S5c0922h01,S5c0922h23,S1b0430h05,S2b0502h02,S2b0503h06,S2b0503h22,S2b0504h02,S2b0505h20,S2b0505h24,S2b0506h19,S5c0917h02,S5c0917h20,S5c0920h05,S5c0920h22,S5c0922h02,S1b0430h03,S2b0501h22,S2b0502h22,S2b0503h20,S2b0504h19,S2b0505h04,S2b0506h20,S5c0917h03,S5c0920h02,S5c0922h04,S2aH1,S2b0502h24,S2b0504h04,S2b0505h03,S2b0506h04,S5aH8,S5c0917h04,S5c0917h21,S5c0918h01,S5c0918h03,S5c0918h21,S5c0922h24,S5c0923h01,S5c0923h20,S5c0923h21,S1b0430h20,S2b0501h02,S2b0501h20,S2b0501h24,S2b0502h03,S2b0502h06,S2b0502h20,S2b0505h19,S2b0506h03,S5c0917h06,S5c0921h21,S5c0923h04,S1b0430h02,S1b0430h21,S2b0503h03,S2b0503h23,S2b0503h24,S2b0505h22,S5c0918h20,S5c0919h19,S5c0919h21,S5c0921h22,S5c0922h22,S5c0923h03,S5c0923h23,S6aH8,S1b0430h19,S2b0501h04,S2b0506h23,S3aH8,S5c0918h02,S5c0921h05,S5c0923h02</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3074,7 +3074,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2aH1,S2b0502h24,S2b0504h04,S2b0505h03,S2b0506h04,S5aH8,S5c0917h04,S5c0917h21,S5c0918h01,S5c0918h03,S5c0918h21,S5c0922h24,S5c0923h01,S5c0923h20,S5c0923h21,S2b0501h03,S2b0501h23,S2b0502h23,S2b0504h01,S2b0504h05,S2b0505h21,S2b0505h23,S2b0506h02,S4aH1,S5c0917h01,S5c0917h22,S5c0917h23,S5c0920h23,S5c0921h03,S5c0922h06,S5c0922h20,S5c0923h22,S6aH1,S1b0430h02,S1b0430h21,S2b0503h03,S2b0503h23,S2b0503h24,S2b0505h22,S5c0918h20,S5c0919h19,S5c0919h21,S5c0921h22,S5c0922h22,S5c0923h03,S5c0923h23,S6aH8,S1aH1,S1b0430h23,S2b0503h01,S2b0504h20,S2b0505h05,S2b0506h06,S5c0920h06,S5c0922h03,S5c0922h21,S2b0501h05,S2b0501h21,S5c0917h24,S5c0918h19,S5c0918h22,S5c0919h23,S5c0920h01,S5c0920h04,S5c0920h20,S5c0923h19,S1b0430h05,S2b0502h02,S2b0503h06,S2b0503h22,S2b0504h02,S2b0505h20,S2b0505h24,S2b0506h19,S5c0917h02,S5c0917h20,S5c0920h05,S5c0920h22,S5c0922h02,S1b0430h19,S2b0501h04,S2b0506h23,S3aH8,S5c0918h02,S5c0921h05,S5c0923h02,S1b0430h06,S2b0503h04,S2b0503h19,S2b0504h23,S2b0505h02,S5c0918h06,S5c0919h02,S5c0920h24,S5c0921h01,S5c0921h19,S5c0921h23,S5c0923h24,S1aH8,S2b0502h05,S2b0504h06,S2b0504h21,S2b0506h24,S5aH1,S5c0919h06,S5c0920h21,S5c0921h20,S5c0922h05,S5c0923h06,S2aH8,S2b0501h01,S2b0502h01,S2b0503h05,S2b0504h03,S2b0506h05,S5c0918h24,S5c0920h19,S5c0921h06,S5c0923h05,S1b0430h20,S2b0501h02,S2b0501h20,S2b0501h24,S2b0502h03,S2b0502h06,S2b0502h20,S2b0505h19,S2b0506h03,S5c0917h06,S5c0921h21,S5c0923h04,S2b0502h04,S2b0504h22,S2b0506h22,S4aH8,S5c0918h04,S5c0919h01,S5c0920h03,S5c0922h19,S1b0430h03,S2b0501h22,S2b0502h22,S2b0503h20,S2b0504h19,S2b0505h04,S2b0506h20,S5c0917h03,S5c0920h02,S5c0922h04,S1b0430h01,S1b0430h24,S2b0501h19,S2b0506h01,S5c0919h22,S5c0919h24,S5c0921h02,S5c0921h24,S5c0922h01,S5c0922h23,S1b0430h22,S2b0502h19,S2b0502h21,S2b0503h02,S2b0503h21,S2b0504h24,S2b0505h01,S2b0505h06,S2b0506h21,S5c0917h19,S5c0919h04,S5c0919h05,S5c0921h04,S1b0430h04,S2b0501h06,S3aH1,S5c0917h05,S5c0918h05,S5c0918h23,S5c0919h03,S5c0919h20</v>
+        <v>S1b0430h06,S2b0503h04,S2b0503h19,S2b0504h23,S2b0505h02,S5c0918h06,S5c0919h02,S5c0920h24,S5c0921h01,S5c0921h19,S5c0921h23,S5c0923h24,S2b0502h04,S2b0504h22,S2b0506h22,S4aH8,S5c0918h04,S5c0919h01,S5c0920h03,S5c0922h19,S1aH8,S2b0502h05,S2b0504h06,S2b0504h21,S2b0506h24,S5aH1,S5c0919h06,S5c0920h21,S5c0921h20,S5c0922h05,S5c0923h06,S1b0430h04,S2b0501h06,S3aH1,S5c0917h05,S5c0918h05,S5c0918h23,S5c0919h03,S5c0919h20,S1b0430h22,S2b0502h19,S2b0502h21,S2b0503h02,S2b0503h21,S2b0504h24,S2b0505h01,S2b0505h06,S2b0506h21,S5c0917h19,S5c0919h04,S5c0919h05,S5c0921h04,S1aH1,S1b0430h23,S2b0503h01,S2b0504h20,S2b0505h05,S2b0506h06,S5c0920h06,S5c0922h03,S5c0922h21,S2b0501h05,S2b0501h21,S5c0917h24,S5c0918h19,S5c0918h22,S5c0919h23,S5c0920h01,S5c0920h04,S5c0920h20,S5c0923h19,S2aH8,S2b0501h01,S2b0502h01,S2b0503h05,S2b0504h03,S2b0506h05,S5c0918h24,S5c0920h19,S5c0921h06,S5c0923h05,S2b0501h03,S2b0501h23,S2b0502h23,S2b0504h01,S2b0504h05,S2b0505h21,S2b0505h23,S2b0506h02,S4aH1,S5c0917h01,S5c0917h22,S5c0917h23,S5c0920h23,S5c0921h03,S5c0922h06,S5c0922h20,S5c0923h22,S6aH1,S1b0430h01,S1b0430h24,S2b0501h19,S2b0506h01,S5c0919h22,S5c0919h24,S5c0921h02,S5c0921h24,S5c0922h01,S5c0922h23,S1b0430h05,S2b0502h02,S2b0503h06,S2b0503h22,S2b0504h02,S2b0505h20,S2b0505h24,S2b0506h19,S5c0917h02,S5c0917h20,S5c0920h05,S5c0920h22,S5c0922h02,S1b0430h03,S2b0501h22,S2b0502h22,S2b0503h20,S2b0504h19,S2b0505h04,S2b0506h20,S5c0917h03,S5c0920h02,S5c0922h04,S2aH1,S2b0502h24,S2b0504h04,S2b0505h03,S2b0506h04,S5aH8,S5c0917h04,S5c0917h21,S5c0918h01,S5c0918h03,S5c0918h21,S5c0922h24,S5c0923h01,S5c0923h20,S5c0923h21,S1b0430h20,S2b0501h02,S2b0501h20,S2b0501h24,S2b0502h03,S2b0502h06,S2b0502h20,S2b0505h19,S2b0506h03,S5c0917h06,S5c0921h21,S5c0923h04,S1b0430h02,S1b0430h21,S2b0503h03,S2b0503h23,S2b0503h24,S2b0505h22,S5c0918h20,S5c0919h19,S5c0919h21,S5c0921h22,S5c0922h22,S5c0923h03,S5c0923h23,S6aH8,S1b0430h19,S2b0501h04,S2b0506h23,S3aH8,S5c0918h02,S5c0921h05,S5c0923h02</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3106,7 +3106,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1b0430h09,S1b0430h12,S2b0501h13,S2b0503h09,S2b0503h11,S2b0504h17,S2b0506h11,S2b0506h16,S4aH2,S5c0917h17,S5c0918h12,S5c0918h16,S5c0920h13,S5c0920h18,S5c0921h16,S5c0923h12,S1aH4,S1b0430h08,S2aH2,S2b0502h14,S2b0503h08,S2b0503h15,S2b0504h07,S2b0504h18,S2b0505h11,S2b0506h09,S2b0506h15,S4aH6,S5c0918h10,S5c0918h13,S5c0920h11,S5c0922h12,S5c0922h15,S1aH6,S1b0430h11,S2b0502h17,S2b0506h17,S5c0917h07,S5c0917h10,S5c0917h13,S5c0923h16,S5c0923h17,S2b0501h09,S2b0503h14,S2b0503h18,S2b0505h10,S2b0505h12,S2b0505h17,S2b0506h13,S5c0917h14,S5c0920h10,S5c0921h14,S5c0923h09,S5c0923h11,S5c0923h15,S1aH3,S2b0504h09,S2b0504h11,S2b0504h14,S5c0919h14,S5c0920h12,S1aH2,S1aH7,S2aH3,S2b0501h08,S2b0502h10,S2b0502h16,S3aH6,S4aH7,S5aH6,S5aH7,S5c0917h08,S5c0918h09,S5c0918h14,S5c0919h07,S5c0919h15,S5c0922h08,S6aH6,S2b0501h14,S2b0503h12,S2b0505h07,S3aH2,S5c0917h11,S5c0917h12,S5c0919h17,S5c0922h07,S5c0922h13,S5c0923h10,S2b0501h16,S2b0501h18,S2b0504h13,S2b0504h16,S4aH5,S5c0920h07,S5c0920h09,S5c0920h14,S2aH6,S2b0505h18,S2b0506h10,S2b0506h18,S3aH5,S5aH3,S5c0919h09,S5c0920h15,S5c0922h17,S2b0501h10,S2b0502h15,S2b0503h17,S2b0504h08,S2b0504h15,S2b0505h09,S2b0505h13,S2b0506h12,S2b0506h14,S3aH7,S5c0918h07,S5c0918h11,S5c0919h10,S5c0920h16,S5c0921h11,S5c0922h09,S5c0923h13,S5c0923h18,S1b0430h17,S2b0502h11,S2b0504h12,S2b0505h15,S3aH3,S5c0917h15,S5c0921h18,S2b0501h17,S2b0502h07,S2b0502h08,S2b0502h09,S5c0918h17,S5c0919h13,S5c0920h08,S5c0920h17,S5c0921h07,S5c0921h10,S5c0922h16,S5c0923h07,S5c0923h14,S6aH5,S1b0430h15,S2b0501h12,S2b0501h15,S2b0502h13,S2b0502h18,S2b0503h07,S2b0503h10,S2b0505h08,S2b0505h14,S2b0506h08,S5aH4,S5c0917h18,S5c0918h15,S5c0921h12,S6aH3,S6aH4,S1b0430h07,S2aH7,S2b0502h12,S2b0503h13,S2b0503h16,S2b0504h10,S3aH4,S4aH3,S4aH4,S5c0917h09,S5c0918h08,S5c0921h13,S5c0922h14,S5c0922h18,S1aH5,S1b0430h10,S1b0430h16,S1b0430h18,S2aH4,S2aH5,S2b0501h11,S2b0505h16,S2b0506h07,S5aH2,S5aH5,S5c0917h16,S5c0918h18,S5c0919h11,S5c0919h16,S5c0919h18,S5c0921h08,S5c0921h09,S5c0922h11,S6aH2,S1b0430h13,S1b0430h14,S2b0501h07,S5c0919h08,S5c0919h12,S5c0921h15,S5c0921h17,S5c0922h10,S5c0923h08,S6aH7</v>
+        <v>S2b0501h16,S2b0501h18,S2b0504h13,S2b0504h16,S4aH5,S5c0920h07,S5c0920h09,S5c0920h14,S2b0501h17,S2b0502h07,S2b0502h08,S2b0502h09,S5c0918h17,S5c0919h13,S5c0920h08,S5c0920h17,S5c0921h07,S5c0921h10,S5c0922h16,S5c0923h07,S5c0923h14,S6aH5,S2aH6,S2b0505h18,S2b0506h10,S2b0506h18,S3aH5,S5aH3,S5c0919h09,S5c0920h15,S5c0922h17,S1b0430h13,S1b0430h14,S2b0501h07,S5c0919h08,S5c0919h12,S5c0921h15,S5c0921h17,S5c0922h10,S5c0923h08,S6aH7,S1aH5,S1b0430h10,S1b0430h16,S1b0430h18,S2aH4,S2aH5,S2b0501h11,S2b0505h16,S2b0506h07,S5aH2,S5aH5,S5c0917h16,S5c0918h18,S5c0919h11,S5c0919h16,S5c0919h18,S5c0921h08,S5c0921h09,S5c0922h11,S6aH2,S2b0501h09,S2b0503h14,S2b0503h18,S2b0505h10,S2b0505h12,S2b0505h17,S2b0506h13,S5c0917h14,S5c0920h10,S5c0921h14,S5c0923h09,S5c0923h11,S5c0923h15,S1aH3,S2b0504h09,S2b0504h11,S2b0504h14,S5c0919h14,S5c0920h12,S2b0501h10,S2b0502h15,S2b0503h17,S2b0504h08,S2b0504h15,S2b0505h09,S2b0505h13,S2b0506h12,S2b0506h14,S3aH7,S5c0918h07,S5c0918h11,S5c0919h10,S5c0920h16,S5c0921h11,S5c0922h09,S5c0923h13,S5c0923h18,S1aH4,S1b0430h08,S2aH2,S2b0502h14,S2b0503h08,S2b0503h15,S2b0504h07,S2b0504h18,S2b0505h11,S2b0506h09,S2b0506h15,S4aH6,S5c0918h10,S5c0918h13,S5c0920h11,S5c0922h12,S5c0922h15,S1b0430h07,S2aH7,S2b0502h12,S2b0503h13,S2b0503h16,S2b0504h10,S3aH4,S4aH3,S4aH4,S5c0917h09,S5c0918h08,S5c0921h13,S5c0922h14,S5c0922h18,S1aH2,S1aH7,S2aH3,S2b0501h08,S2b0502h10,S2b0502h16,S3aH6,S4aH7,S5aH6,S5aH7,S5c0917h08,S5c0918h09,S5c0918h14,S5c0919h07,S5c0919h15,S5c0922h08,S6aH6,S1b0430h15,S2b0501h12,S2b0501h15,S2b0502h13,S2b0502h18,S2b0503h07,S2b0503h10,S2b0505h08,S2b0505h14,S2b0506h08,S5aH4,S5c0917h18,S5c0918h15,S5c0921h12,S6aH3,S6aH4,S1b0430h09,S1b0430h12,S2b0501h13,S2b0503h09,S2b0503h11,S2b0504h17,S2b0506h11,S2b0506h16,S4aH2,S5c0917h17,S5c0918h12,S5c0918h16,S5c0920h13,S5c0920h18,S5c0921h16,S5c0923h12,S1b0430h17,S2b0502h11,S2b0504h12,S2b0505h15,S3aH3,S5c0917h15,S5c0921h18,S1aH6,S1b0430h11,S2b0502h17,S2b0506h17,S5c0917h07,S5c0917h10,S5c0917h13,S5c0923h16,S5c0923h17,S2b0501h14,S2b0503h12,S2b0505h07,S3aH2,S5c0917h11,S5c0917h12,S5c0919h17,S5c0922h07,S5c0922h13,S5c0923h10</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3719,7 +3719,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6500D001-1518-4072-B50C-11B8A5C0E541}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3315109-9A83-4D9E-B7F0-DF14D61F7E26}">
   <dimension ref="B2:F347"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6542,7 +6542,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75874092-3EC3-414C-A185-059518B14C5E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{533A711F-C2BB-426E-AC46-0A084BB969AE}">
   <dimension ref="B2:K387"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -16573,7 +16573,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09C5F08D-FC9B-4D59-AA0D-BF4C210FA913}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E54DA63-D26B-40F8-AA78-A13FC05BD143}">
   <dimension ref="B2:O771"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_SAU/SuppXLS/scen_tsparameters_weekly_stress.xlsx
+++ b/VerveStacks_SAU/SuppXLS/scen_tsparameters_weekly_stress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_SAU\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E791707A-F14D-49FD-82F0-8A5898703230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0949FB69-399E-40FF-9031-C31293A9229C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
+    <workbookView xWindow="3675" yWindow="3675" windowWidth="21600" windowHeight="12683" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
   <sheets>
     <sheet name="ev_charging_uc" sheetId="9" r:id="rId1"/>
@@ -2511,10 +2511,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S2b0501h16,S2b0501h18,S2b0504h13,S2b0504h16,S4aH5,S5c0920h07,S5c0920h09,S5c0920h14,S2b0501h17,S2b0502h07,S2b0502h08,S2b0502h09,S5c0918h17,S5c0919h13,S5c0920h08,S5c0920h17,S5c0921h07,S5c0921h10,S5c0922h16,S5c0923h07,S5c0923h14,S6aH5,S2aH6,S2b0505h18,S2b0506h10,S2b0506h18,S3aH5,S5aH3,S5c0919h09,S5c0920h15,S5c0922h17,S1b0430h13,S1b0430h14,S2b0501h07,S5c0919h08,S5c0919h12,S5c0921h15,S5c0921h17,S5c0922h10,S5c0923h08,S6aH7,S1aH5,S1b0430h10,S1b0430h16,S1b0430h18,S2aH4,S2aH5,S2b0501h11,S2b0505h16,S2b0506h07,S5aH2,S5aH5,S5c0917h16,S5c0918h18,S5c0919h11,S5c0919h16,S5c0919h18,S5c0921h08,S5c0921h09,S5c0922h11,S6aH2,S2b0501h09,S2b0503h14,S2b0503h18,S2b0505h10,S2b0505h12,S2b0505h17,S2b0506h13,S5c0917h14,S5c0920h10,S5c0921h14,S5c0923h09,S5c0923h11,S5c0923h15,S1aH3,S2b0504h09,S2b0504h11,S2b0504h14,S5c0919h14,S5c0920h12,S2b0501h10,S2b0502h15,S2b0503h17,S2b0504h08,S2b0504h15,S2b0505h09,S2b0505h13,S2b0506h12,S2b0506h14,S3aH7,S5c0918h07,S5c0918h11,S5c0919h10,S5c0920h16,S5c0921h11,S5c0922h09,S5c0923h13,S5c0923h18,S1aH4,S1b0430h08,S2aH2,S2b0502h14,S2b0503h08,S2b0503h15,S2b0504h07,S2b0504h18,S2b0505h11,S2b0506h09,S2b0506h15,S4aH6,S5c0918h10,S5c0918h13,S5c0920h11,S5c0922h12,S5c0922h15,S1b0430h07,S2aH7,S2b0502h12,S2b0503h13,S2b0503h16,S2b0504h10,S3aH4,S4aH3,S4aH4,S5c0917h09,S5c0918h08,S5c0921h13,S5c0922h14,S5c0922h18,S1aH2,S1aH7,S2aH3,S2b0501h08,S2b0502h10,S2b0502h16,S3aH6,S4aH7,S5aH6,S5aH7,S5c0917h08,S5c0918h09,S5c0918h14,S5c0919h07,S5c0919h15,S5c0922h08,S6aH6,S1b0430h15,S2b0501h12,S2b0501h15,S2b0502h13,S2b0502h18,S2b0503h07,S2b0503h10,S2b0505h08,S2b0505h14,S2b0506h08,S5aH4,S5c0917h18,S5c0918h15,S5c0921h12,S6aH3,S6aH4,S1b0430h09,S1b0430h12,S2b0501h13,S2b0503h09,S2b0503h11,S2b0504h17,S2b0506h11,S2b0506h16,S4aH2,S5c0917h17,S5c0918h12,S5c0918h16,S5c0920h13,S5c0920h18,S5c0921h16,S5c0923h12,S1b0430h17,S2b0502h11,S2b0504h12,S2b0505h15,S3aH3,S5c0917h15,S5c0921h18,S1aH6,S1b0430h11,S2b0502h17,S2b0506h17,S5c0917h07,S5c0917h10,S5c0917h13,S5c0923h16,S5c0923h17,S2b0501h14,S2b0503h12,S2b0505h07,S3aH2,S5c0917h11,S5c0917h12,S5c0919h17,S5c0922h07,S5c0922h13,S5c0923h10</t>
-  </si>
-  <si>
-    <t>S1b0430h06,S2b0503h04,S2b0503h19,S2b0504h23,S2b0505h02,S5c0918h06,S5c0919h02,S5c0920h24,S5c0921h01,S5c0921h19,S5c0921h23,S5c0923h24,S2b0502h04,S2b0504h22,S2b0506h22,S4aH8,S5c0918h04,S5c0919h01,S5c0920h03,S5c0922h19,S1aH8,S2b0502h05,S2b0504h06,S2b0504h21,S2b0506h24,S5aH1,S5c0919h06,S5c0920h21,S5c0921h20,S5c0922h05,S5c0923h06,S1b0430h04,S2b0501h06,S3aH1,S5c0917h05,S5c0918h05,S5c0918h23,S5c0919h03,S5c0919h20,S1b0430h22,S2b0502h19,S2b0502h21,S2b0503h02,S2b0503h21,S2b0504h24,S2b0505h01,S2b0505h06,S2b0506h21,S5c0917h19,S5c0919h04,S5c0919h05,S5c0921h04,S1aH1,S1b0430h23,S2b0503h01,S2b0504h20,S2b0505h05,S2b0506h06,S5c0920h06,S5c0922h03,S5c0922h21,S2b0501h05,S2b0501h21,S5c0917h24,S5c0918h19,S5c0918h22,S5c0919h23,S5c0920h01,S5c0920h04,S5c0920h20,S5c0923h19,S2aH8,S2b0501h01,S2b0502h01,S2b0503h05,S2b0504h03,S2b0506h05,S5c0918h24,S5c0920h19,S5c0921h06,S5c0923h05,S2b0501h03,S2b0501h23,S2b0502h23,S2b0504h01,S2b0504h05,S2b0505h21,S2b0505h23,S2b0506h02,S4aH1,S5c0917h01,S5c0917h22,S5c0917h23,S5c0920h23,S5c0921h03,S5c0922h06,S5c0922h20,S5c0923h22,S6aH1,S1b0430h01,S1b0430h24,S2b0501h19,S2b0506h01,S5c0919h22,S5c0919h24,S5c0921h02,S5c0921h24,S5c0922h01,S5c0922h23,S1b0430h05,S2b0502h02,S2b0503h06,S2b0503h22,S2b0504h02,S2b0505h20,S2b0505h24,S2b0506h19,S5c0917h02,S5c0917h20,S5c0920h05,S5c0920h22,S5c0922h02,S1b0430h03,S2b0501h22,S2b0502h22,S2b0503h20,S2b0504h19,S2b0505h04,S2b0506h20,S5c0917h03,S5c0920h02,S5c0922h04,S2aH1,S2b0502h24,S2b0504h04,S2b0505h03,S2b0506h04,S5aH8,S5c0917h04,S5c0917h21,S5c0918h01,S5c0918h03,S5c0918h21,S5c0922h24,S5c0923h01,S5c0923h20,S5c0923h21,S1b0430h20,S2b0501h02,S2b0501h20,S2b0501h24,S2b0502h03,S2b0502h06,S2b0502h20,S2b0505h19,S2b0506h03,S5c0917h06,S5c0921h21,S5c0923h04,S1b0430h02,S1b0430h21,S2b0503h03,S2b0503h23,S2b0503h24,S2b0505h22,S5c0918h20,S5c0919h19,S5c0919h21,S5c0921h22,S5c0922h22,S5c0923h03,S5c0923h23,S6aH8,S1b0430h19,S2b0501h04,S2b0506h23,S3aH8,S5c0918h02,S5c0921h05,S5c0923h02</t>
+    <t>S1aH4,S1b0430h08,S2aH2,S2b0502h14,S2b0503h08,S2b0503h15,S2b0504h07,S2b0504h18,S2b0505h11,S2b0506h09,S2b0506h15,S4aH6,S5c0918h10,S5c0918h13,S5c0920h11,S5c0922h12,S5c0922h15,S1aH3,S2b0504h09,S2b0504h11,S2b0504h14,S5c0919h14,S5c0920h12,S1b0430h13,S1b0430h14,S2b0501h07,S5c0919h08,S5c0919h12,S5c0921h15,S5c0921h17,S5c0922h10,S5c0923h08,S6aH7,S1aH6,S1b0430h11,S2b0502h17,S2b0506h17,S5c0917h07,S5c0917h10,S5c0917h13,S5c0923h16,S5c0923h17,S1b0430h17,S2b0502h11,S2b0504h12,S2b0505h15,S3aH3,S5c0917h15,S5c0921h18,S2b0501h09,S2b0503h14,S2b0503h18,S2b0505h10,S2b0505h12,S2b0505h17,S2b0506h13,S5c0917h14,S5c0920h10,S5c0921h14,S5c0923h09,S5c0923h11,S5c0923h15,S2b0501h10,S2b0502h15,S2b0503h17,S2b0504h08,S2b0504h15,S2b0505h09,S2b0505h13,S2b0506h12,S2b0506h14,S3aH7,S5c0918h07,S5c0918h11,S5c0919h10,S5c0920h16,S5c0921h11,S5c0922h09,S5c0923h13,S5c0923h18,S1b0430h07,S2aH7,S2b0502h12,S2b0503h13,S2b0503h16,S2b0504h10,S3aH4,S4aH3,S4aH4,S5c0917h09,S5c0918h08,S5c0921h13,S5c0922h14,S5c0922h18,S1b0430h09,S1b0430h12,S2b0501h13,S2b0503h09,S2b0503h11,S2b0504h17,S2b0506h11,S2b0506h16,S4aH2,S5c0917h17,S5c0918h12,S5c0918h16,S5c0920h13,S5c0920h18,S5c0921h16,S5c0923h12,S1b0430h15,S2b0501h12,S2b0501h15,S2b0502h13,S2b0502h18,S2b0503h07,S2b0503h10,S2b0505h08,S2b0505h14,S2b0506h08,S5aH4,S5c0917h18,S5c0918h15,S5c0921h12,S6aH3,S6aH4,S2b0501h14,S2b0503h12,S2b0505h07,S3aH2,S5c0917h11,S5c0917h12,S5c0919h17,S5c0922h07,S5c0922h13,S5c0923h10,S1aH2,S1aH7,S2aH3,S2b0501h08,S2b0502h10,S2b0502h16,S3aH6,S4aH7,S5aH6,S5aH7,S5c0917h08,S5c0918h09,S5c0918h14,S5c0919h07,S5c0919h15,S5c0922h08,S6aH6,S2aH6,S2b0505h18,S2b0506h10,S2b0506h18,S3aH5,S5aH3,S5c0919h09,S5c0920h15,S5c0922h17,S2b0501h17,S2b0502h07,S2b0502h08,S2b0502h09,S5c0918h17,S5c0919h13,S5c0920h08,S5c0920h17,S5c0921h07,S5c0921h10,S5c0922h16,S5c0923h07,S5c0923h14,S6aH5,S2b0501h16,S2b0501h18,S2b0504h13,S2b0504h16,S4aH5,S5c0920h07,S5c0920h09,S5c0920h14,S1aH5,S1b0430h10,S1b0430h16,S1b0430h18,S2aH4,S2aH5,S2b0501h11,S2b0505h16,S2b0506h07,S5aH2,S5aH5,S5c0917h16,S5c0918h18,S5c0919h11,S5c0919h16,S5c0919h18,S5c0921h08,S5c0921h09,S5c0922h11,S6aH2</t>
+  </si>
+  <si>
+    <t>S2b0501h03,S2b0501h23,S2b0502h23,S2b0504h01,S2b0504h05,S2b0505h21,S2b0505h23,S2b0506h02,S4aH1,S5c0917h01,S5c0917h22,S5c0917h23,S5c0920h23,S5c0921h03,S5c0922h06,S5c0922h20,S5c0923h22,S6aH1,S2b0501h05,S2b0501h21,S5c0917h24,S5c0918h19,S5c0918h22,S5c0919h23,S5c0920h01,S5c0920h04,S5c0920h20,S5c0923h19,S1b0430h04,S2b0501h06,S3aH1,S5c0917h05,S5c0918h05,S5c0918h23,S5c0919h03,S5c0919h20,S1b0430h02,S1b0430h21,S2b0503h03,S2b0503h23,S2b0503h24,S2b0505h22,S5c0918h20,S5c0919h19,S5c0919h21,S5c0921h22,S5c0922h22,S5c0923h03,S5c0923h23,S6aH8,S1b0430h20,S2b0501h02,S2b0501h20,S2b0501h24,S2b0502h03,S2b0502h06,S2b0502h20,S2b0505h19,S2b0506h03,S5c0917h06,S5c0921h21,S5c0923h04,S1aH1,S1b0430h23,S2b0503h01,S2b0504h20,S2b0505h05,S2b0506h06,S5c0920h06,S5c0922h03,S5c0922h21,S2aH8,S2b0501h01,S2b0502h01,S2b0503h05,S2b0504h03,S2b0506h05,S5c0918h24,S5c0920h19,S5c0921h06,S5c0923h05,S1b0430h01,S1b0430h24,S2b0501h19,S2b0506h01,S5c0919h22,S5c0919h24,S5c0921h02,S5c0921h24,S5c0922h01,S5c0922h23,S2aH1,S2b0502h24,S2b0504h04,S2b0505h03,S2b0506h04,S5aH8,S5c0917h04,S5c0917h21,S5c0918h01,S5c0918h03,S5c0918h21,S5c0922h24,S5c0923h01,S5c0923h20,S5c0923h21,S1b0430h03,S2b0501h22,S2b0502h22,S2b0503h20,S2b0504h19,S2b0505h04,S2b0506h20,S5c0917h03,S5c0920h02,S5c0922h04,S1b0430h19,S2b0501h04,S2b0506h23,S3aH8,S5c0918h02,S5c0921h05,S5c0923h02,S1b0430h05,S2b0502h02,S2b0503h06,S2b0503h22,S2b0504h02,S2b0505h20,S2b0505h24,S2b0506h19,S5c0917h02,S5c0917h20,S5c0920h05,S5c0920h22,S5c0922h02,S1aH8,S2b0502h05,S2b0504h06,S2b0504h21,S2b0506h24,S5aH1,S5c0919h06,S5c0920h21,S5c0921h20,S5c0922h05,S5c0923h06,S2b0502h04,S2b0504h22,S2b0506h22,S4aH8,S5c0918h04,S5c0919h01,S5c0920h03,S5c0922h19,S1b0430h06,S2b0503h04,S2b0503h19,S2b0504h23,S2b0505h02,S5c0918h06,S5c0919h02,S5c0920h24,S5c0921h01,S5c0921h19,S5c0921h23,S5c0923h24,S1b0430h22,S2b0502h19,S2b0502h21,S2b0503h02,S2b0503h21,S2b0504h24,S2b0505h01,S2b0505h06,S2b0506h21,S5c0917h19,S5c0919h04,S5c0919h05,S5c0921h04</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3074,7 +3074,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0430h06,S2b0503h04,S2b0503h19,S2b0504h23,S2b0505h02,S5c0918h06,S5c0919h02,S5c0920h24,S5c0921h01,S5c0921h19,S5c0921h23,S5c0923h24,S2b0502h04,S2b0504h22,S2b0506h22,S4aH8,S5c0918h04,S5c0919h01,S5c0920h03,S5c0922h19,S1aH8,S2b0502h05,S2b0504h06,S2b0504h21,S2b0506h24,S5aH1,S5c0919h06,S5c0920h21,S5c0921h20,S5c0922h05,S5c0923h06,S1b0430h04,S2b0501h06,S3aH1,S5c0917h05,S5c0918h05,S5c0918h23,S5c0919h03,S5c0919h20,S1b0430h22,S2b0502h19,S2b0502h21,S2b0503h02,S2b0503h21,S2b0504h24,S2b0505h01,S2b0505h06,S2b0506h21,S5c0917h19,S5c0919h04,S5c0919h05,S5c0921h04,S1aH1,S1b0430h23,S2b0503h01,S2b0504h20,S2b0505h05,S2b0506h06,S5c0920h06,S5c0922h03,S5c0922h21,S2b0501h05,S2b0501h21,S5c0917h24,S5c0918h19,S5c0918h22,S5c0919h23,S5c0920h01,S5c0920h04,S5c0920h20,S5c0923h19,S2aH8,S2b0501h01,S2b0502h01,S2b0503h05,S2b0504h03,S2b0506h05,S5c0918h24,S5c0920h19,S5c0921h06,S5c0923h05,S2b0501h03,S2b0501h23,S2b0502h23,S2b0504h01,S2b0504h05,S2b0505h21,S2b0505h23,S2b0506h02,S4aH1,S5c0917h01,S5c0917h22,S5c0917h23,S5c0920h23,S5c0921h03,S5c0922h06,S5c0922h20,S5c0923h22,S6aH1,S1b0430h01,S1b0430h24,S2b0501h19,S2b0506h01,S5c0919h22,S5c0919h24,S5c0921h02,S5c0921h24,S5c0922h01,S5c0922h23,S1b0430h05,S2b0502h02,S2b0503h06,S2b0503h22,S2b0504h02,S2b0505h20,S2b0505h24,S2b0506h19,S5c0917h02,S5c0917h20,S5c0920h05,S5c0920h22,S5c0922h02,S1b0430h03,S2b0501h22,S2b0502h22,S2b0503h20,S2b0504h19,S2b0505h04,S2b0506h20,S5c0917h03,S5c0920h02,S5c0922h04,S2aH1,S2b0502h24,S2b0504h04,S2b0505h03,S2b0506h04,S5aH8,S5c0917h04,S5c0917h21,S5c0918h01,S5c0918h03,S5c0918h21,S5c0922h24,S5c0923h01,S5c0923h20,S5c0923h21,S1b0430h20,S2b0501h02,S2b0501h20,S2b0501h24,S2b0502h03,S2b0502h06,S2b0502h20,S2b0505h19,S2b0506h03,S5c0917h06,S5c0921h21,S5c0923h04,S1b0430h02,S1b0430h21,S2b0503h03,S2b0503h23,S2b0503h24,S2b0505h22,S5c0918h20,S5c0919h19,S5c0919h21,S5c0921h22,S5c0922h22,S5c0923h03,S5c0923h23,S6aH8,S1b0430h19,S2b0501h04,S2b0506h23,S3aH8,S5c0918h02,S5c0921h05,S5c0923h02</v>
+        <v>S2b0501h03,S2b0501h23,S2b0502h23,S2b0504h01,S2b0504h05,S2b0505h21,S2b0505h23,S2b0506h02,S4aH1,S5c0917h01,S5c0917h22,S5c0917h23,S5c0920h23,S5c0921h03,S5c0922h06,S5c0922h20,S5c0923h22,S6aH1,S2b0501h05,S2b0501h21,S5c0917h24,S5c0918h19,S5c0918h22,S5c0919h23,S5c0920h01,S5c0920h04,S5c0920h20,S5c0923h19,S1b0430h04,S2b0501h06,S3aH1,S5c0917h05,S5c0918h05,S5c0918h23,S5c0919h03,S5c0919h20,S1b0430h02,S1b0430h21,S2b0503h03,S2b0503h23,S2b0503h24,S2b0505h22,S5c0918h20,S5c0919h19,S5c0919h21,S5c0921h22,S5c0922h22,S5c0923h03,S5c0923h23,S6aH8,S1b0430h20,S2b0501h02,S2b0501h20,S2b0501h24,S2b0502h03,S2b0502h06,S2b0502h20,S2b0505h19,S2b0506h03,S5c0917h06,S5c0921h21,S5c0923h04,S1aH1,S1b0430h23,S2b0503h01,S2b0504h20,S2b0505h05,S2b0506h06,S5c0920h06,S5c0922h03,S5c0922h21,S2aH8,S2b0501h01,S2b0502h01,S2b0503h05,S2b0504h03,S2b0506h05,S5c0918h24,S5c0920h19,S5c0921h06,S5c0923h05,S1b0430h01,S1b0430h24,S2b0501h19,S2b0506h01,S5c0919h22,S5c0919h24,S5c0921h02,S5c0921h24,S5c0922h01,S5c0922h23,S2aH1,S2b0502h24,S2b0504h04,S2b0505h03,S2b0506h04,S5aH8,S5c0917h04,S5c0917h21,S5c0918h01,S5c0918h03,S5c0918h21,S5c0922h24,S5c0923h01,S5c0923h20,S5c0923h21,S1b0430h03,S2b0501h22,S2b0502h22,S2b0503h20,S2b0504h19,S2b0505h04,S2b0506h20,S5c0917h03,S5c0920h02,S5c0922h04,S1b0430h19,S2b0501h04,S2b0506h23,S3aH8,S5c0918h02,S5c0921h05,S5c0923h02,S1b0430h05,S2b0502h02,S2b0503h06,S2b0503h22,S2b0504h02,S2b0505h20,S2b0505h24,S2b0506h19,S5c0917h02,S5c0917h20,S5c0920h05,S5c0920h22,S5c0922h02,S1aH8,S2b0502h05,S2b0504h06,S2b0504h21,S2b0506h24,S5aH1,S5c0919h06,S5c0920h21,S5c0921h20,S5c0922h05,S5c0923h06,S2b0502h04,S2b0504h22,S2b0506h22,S4aH8,S5c0918h04,S5c0919h01,S5c0920h03,S5c0922h19,S1b0430h06,S2b0503h04,S2b0503h19,S2b0504h23,S2b0505h02,S5c0918h06,S5c0919h02,S5c0920h24,S5c0921h01,S5c0921h19,S5c0921h23,S5c0923h24,S1b0430h22,S2b0502h19,S2b0502h21,S2b0503h02,S2b0503h21,S2b0504h24,S2b0505h01,S2b0505h06,S2b0506h21,S5c0917h19,S5c0919h04,S5c0919h05,S5c0921h04</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3106,7 +3106,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S2b0501h16,S2b0501h18,S2b0504h13,S2b0504h16,S4aH5,S5c0920h07,S5c0920h09,S5c0920h14,S2b0501h17,S2b0502h07,S2b0502h08,S2b0502h09,S5c0918h17,S5c0919h13,S5c0920h08,S5c0920h17,S5c0921h07,S5c0921h10,S5c0922h16,S5c0923h07,S5c0923h14,S6aH5,S2aH6,S2b0505h18,S2b0506h10,S2b0506h18,S3aH5,S5aH3,S5c0919h09,S5c0920h15,S5c0922h17,S1b0430h13,S1b0430h14,S2b0501h07,S5c0919h08,S5c0919h12,S5c0921h15,S5c0921h17,S5c0922h10,S5c0923h08,S6aH7,S1aH5,S1b0430h10,S1b0430h16,S1b0430h18,S2aH4,S2aH5,S2b0501h11,S2b0505h16,S2b0506h07,S5aH2,S5aH5,S5c0917h16,S5c0918h18,S5c0919h11,S5c0919h16,S5c0919h18,S5c0921h08,S5c0921h09,S5c0922h11,S6aH2,S2b0501h09,S2b0503h14,S2b0503h18,S2b0505h10,S2b0505h12,S2b0505h17,S2b0506h13,S5c0917h14,S5c0920h10,S5c0921h14,S5c0923h09,S5c0923h11,S5c0923h15,S1aH3,S2b0504h09,S2b0504h11,S2b0504h14,S5c0919h14,S5c0920h12,S2b0501h10,S2b0502h15,S2b0503h17,S2b0504h08,S2b0504h15,S2b0505h09,S2b0505h13,S2b0506h12,S2b0506h14,S3aH7,S5c0918h07,S5c0918h11,S5c0919h10,S5c0920h16,S5c0921h11,S5c0922h09,S5c0923h13,S5c0923h18,S1aH4,S1b0430h08,S2aH2,S2b0502h14,S2b0503h08,S2b0503h15,S2b0504h07,S2b0504h18,S2b0505h11,S2b0506h09,S2b0506h15,S4aH6,S5c0918h10,S5c0918h13,S5c0920h11,S5c0922h12,S5c0922h15,S1b0430h07,S2aH7,S2b0502h12,S2b0503h13,S2b0503h16,S2b0504h10,S3aH4,S4aH3,S4aH4,S5c0917h09,S5c0918h08,S5c0921h13,S5c0922h14,S5c0922h18,S1aH2,S1aH7,S2aH3,S2b0501h08,S2b0502h10,S2b0502h16,S3aH6,S4aH7,S5aH6,S5aH7,S5c0917h08,S5c0918h09,S5c0918h14,S5c0919h07,S5c0919h15,S5c0922h08,S6aH6,S1b0430h15,S2b0501h12,S2b0501h15,S2b0502h13,S2b0502h18,S2b0503h07,S2b0503h10,S2b0505h08,S2b0505h14,S2b0506h08,S5aH4,S5c0917h18,S5c0918h15,S5c0921h12,S6aH3,S6aH4,S1b0430h09,S1b0430h12,S2b0501h13,S2b0503h09,S2b0503h11,S2b0504h17,S2b0506h11,S2b0506h16,S4aH2,S5c0917h17,S5c0918h12,S5c0918h16,S5c0920h13,S5c0920h18,S5c0921h16,S5c0923h12,S1b0430h17,S2b0502h11,S2b0504h12,S2b0505h15,S3aH3,S5c0917h15,S5c0921h18,S1aH6,S1b0430h11,S2b0502h17,S2b0506h17,S5c0917h07,S5c0917h10,S5c0917h13,S5c0923h16,S5c0923h17,S2b0501h14,S2b0503h12,S2b0505h07,S3aH2,S5c0917h11,S5c0917h12,S5c0919h17,S5c0922h07,S5c0922h13,S5c0923h10</v>
+        <v>S1aH4,S1b0430h08,S2aH2,S2b0502h14,S2b0503h08,S2b0503h15,S2b0504h07,S2b0504h18,S2b0505h11,S2b0506h09,S2b0506h15,S4aH6,S5c0918h10,S5c0918h13,S5c0920h11,S5c0922h12,S5c0922h15,S1aH3,S2b0504h09,S2b0504h11,S2b0504h14,S5c0919h14,S5c0920h12,S1b0430h13,S1b0430h14,S2b0501h07,S5c0919h08,S5c0919h12,S5c0921h15,S5c0921h17,S5c0922h10,S5c0923h08,S6aH7,S1aH6,S1b0430h11,S2b0502h17,S2b0506h17,S5c0917h07,S5c0917h10,S5c0917h13,S5c0923h16,S5c0923h17,S1b0430h17,S2b0502h11,S2b0504h12,S2b0505h15,S3aH3,S5c0917h15,S5c0921h18,S2b0501h09,S2b0503h14,S2b0503h18,S2b0505h10,S2b0505h12,S2b0505h17,S2b0506h13,S5c0917h14,S5c0920h10,S5c0921h14,S5c0923h09,S5c0923h11,S5c0923h15,S2b0501h10,S2b0502h15,S2b0503h17,S2b0504h08,S2b0504h15,S2b0505h09,S2b0505h13,S2b0506h12,S2b0506h14,S3aH7,S5c0918h07,S5c0918h11,S5c0919h10,S5c0920h16,S5c0921h11,S5c0922h09,S5c0923h13,S5c0923h18,S1b0430h07,S2aH7,S2b0502h12,S2b0503h13,S2b0503h16,S2b0504h10,S3aH4,S4aH3,S4aH4,S5c0917h09,S5c0918h08,S5c0921h13,S5c0922h14,S5c0922h18,S1b0430h09,S1b0430h12,S2b0501h13,S2b0503h09,S2b0503h11,S2b0504h17,S2b0506h11,S2b0506h16,S4aH2,S5c0917h17,S5c0918h12,S5c0918h16,S5c0920h13,S5c0920h18,S5c0921h16,S5c0923h12,S1b0430h15,S2b0501h12,S2b0501h15,S2b0502h13,S2b0502h18,S2b0503h07,S2b0503h10,S2b0505h08,S2b0505h14,S2b0506h08,S5aH4,S5c0917h18,S5c0918h15,S5c0921h12,S6aH3,S6aH4,S2b0501h14,S2b0503h12,S2b0505h07,S3aH2,S5c0917h11,S5c0917h12,S5c0919h17,S5c0922h07,S5c0922h13,S5c0923h10,S1aH2,S1aH7,S2aH3,S2b0501h08,S2b0502h10,S2b0502h16,S3aH6,S4aH7,S5aH6,S5aH7,S5c0917h08,S5c0918h09,S5c0918h14,S5c0919h07,S5c0919h15,S5c0922h08,S6aH6,S2aH6,S2b0505h18,S2b0506h10,S2b0506h18,S3aH5,S5aH3,S5c0919h09,S5c0920h15,S5c0922h17,S2b0501h17,S2b0502h07,S2b0502h08,S2b0502h09,S5c0918h17,S5c0919h13,S5c0920h08,S5c0920h17,S5c0921h07,S5c0921h10,S5c0922h16,S5c0923h07,S5c0923h14,S6aH5,S2b0501h16,S2b0501h18,S2b0504h13,S2b0504h16,S4aH5,S5c0920h07,S5c0920h09,S5c0920h14,S1aH5,S1b0430h10,S1b0430h16,S1b0430h18,S2aH4,S2aH5,S2b0501h11,S2b0505h16,S2b0506h07,S5aH2,S5aH5,S5c0917h16,S5c0918h18,S5c0919h11,S5c0919h16,S5c0919h18,S5c0921h08,S5c0921h09,S5c0922h11,S6aH2</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3719,7 +3719,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3315109-9A83-4D9E-B7F0-DF14D61F7E26}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD7B555-FC9C-4D33-A088-632D66942EA8}">
   <dimension ref="B2:F347"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6542,7 +6542,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{533A711F-C2BB-426E-AC46-0A084BB969AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E764D55-FCB2-48EB-A185-742EC73226E4}">
   <dimension ref="B2:K387"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -16573,7 +16573,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E54DA63-D26B-40F8-AA78-A13FC05BD143}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7D3B1C0-664C-49DA-A43F-8982FA729C3E}">
   <dimension ref="B2:O771"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
